--- a/ig/StructureDefinition-ror-organization-territorial.xlsx
+++ b/ig/StructureDefinition-ror-organization-territorial.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:25:23+00:00</t>
+    <t>2023-02-16T13:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization-territorial.xlsx
+++ b/ig/StructureDefinition-ror-organization-territorial.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:28:22+00:00</t>
+    <t>2023-02-17T16:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-organization-territorial.xlsx
+++ b/ig/StructureDefinition-ror-organization-territorial.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:20:54+00:00</t>
+    <t>2023-02-23T08:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
